--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Storage Folder\Sibaq\qrcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66100DF-EAB9-4BAA-BC2A-0AB9EFD3DD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2CB24A-1270-4E38-90D5-B6DA43BAC9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,66 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>chestNo</t>
   </si>
   <si>
     <t>dob</t>
-  </si>
-  <si>
-    <t>23-04-2014</t>
-  </si>
-  <si>
-    <t>23-04-2015</t>
-  </si>
-  <si>
-    <t>23-04-2016</t>
-  </si>
-  <si>
-    <t>23-04-2017</t>
-  </si>
-  <si>
-    <t>23-04-2018</t>
-  </si>
-  <si>
-    <t>23-04-2019</t>
-  </si>
-  <si>
-    <t>23-04-2020</t>
-  </si>
-  <si>
-    <t>23-04-2021</t>
-  </si>
-  <si>
-    <t>23-04-2022</t>
-  </si>
-  <si>
-    <t>23-04-2023</t>
-  </si>
-  <si>
-    <t>23-04-2024</t>
-  </si>
-  <si>
-    <t>23-04-2025</t>
-  </si>
-  <si>
-    <t>23-04-2026</t>
-  </si>
-  <si>
-    <t>23-04-2027</t>
-  </si>
-  <si>
-    <t>23-04-2028</t>
-  </si>
-  <si>
-    <t>23-04-2029</t>
-  </si>
-  <si>
-    <t>23-04-2030</t>
-  </si>
-  <si>
-    <t>23-04-2031</t>
   </si>
 </sst>
 </file>
@@ -126,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,146 +376,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1749</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1241</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1243</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1244</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1246</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1247</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1248</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1249</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1250</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1251</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>4833</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39463</v>
       </c>
     </row>
   </sheetData>
